--- a/DOC/TSampleCollisionTest 카메라 개념 확인용.xlsx
+++ b/DOC/TSampleCollisionTest 카메라 개념 확인용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Git\Wany_Project\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3122A-D1C9-44BA-9B6E-108AF8999589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2955E597-7AA3-45CA-9DCF-BE4EF25D2C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEEAB1E8-12CC-4D49-9D50-D7649CEBCC6A}"/>
+    <workbookView xWindow="4965" yWindow="4980" windowWidth="21600" windowHeight="11385" xr2:uid="{DEEAB1E8-12CC-4D49-9D50-D7649CEBCC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 화면 좌표 위치 인줄 알았는데 NPC는 직각좌표네</t>
+    <t>카메라 원점 좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43205A97-7E9A-4F2D-984E-1268AADDF872}">
   <dimension ref="B4:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
